--- a/Output_testing/R1_201907/Country/HKD/MN/MALAYSIA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/MALAYSIA_201907_HKD_MN.xlsx
@@ -810,136 +810,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>6593.261908</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>24.1750340758246</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>6719.703535</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>23.44416689520205</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>8463.934797</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>24.13701945475076</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>5348.492301</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>26.68268390934379</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>16.32511866593422</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>3690.083593</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>13.53016122341128</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>4038.951027</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>14.09137195790524</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>5367.763548</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>15.30751551069374</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>2963.293002</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>14.78334567077026</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-5.882729033006173</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>2903.069315</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>10.64447319003815</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>2966.021053</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>10.34805958611609</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>3147.112597</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>8.974775893477405</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>1607.215109</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>8.018112453812527</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-9.140608908995219</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>1045.479203</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>3.833382582212287</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>1086.380111</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>3.790238140902168</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>1642.863404</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>4.68503443078285</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>947.74322</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>4.728123617520314</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>5.960324474513157</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>1560.947798</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>5.723413802422449</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>1600.011993</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>5.582232609346337</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>1484.061834</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>4.232172177414174</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>895.68755</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>4.468427069384793</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>11.02562020902125</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>983.263688</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>3.605261476732614</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>989.516842</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>3.452294862210953</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>1218.696559</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>3.475416961440565</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>584.425297</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>2.915594636933434</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-11.04627205203157</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>1052.415849</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>3.858816677772552</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>792.950336</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>2.766500027860313</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>883.705687</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>2.520107003536133</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>565.991684</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>2.823632595800047</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>6.722877740885291</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>659.439766</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>2.41791984551083</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>771.612859</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>2.692056360918013</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>789.792455</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>2.252290017440497</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>456.108476</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>2.275444668996732</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>0.991784441118404</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>398.21361</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>1.460100891718911</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>318.405313</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>1.110874499062412</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>651.884449</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>1.859010968910052</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>437.636257</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>2.183290029344541</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>30.17742945125514</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>728</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MACHINERY AND EQUIPMENT SPECIALIZED FOR PARTICULAR INDUSTRIES, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>526.392665</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>1.930085713446092</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>589.820151</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>2.057805375813693</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>539.660336</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>1.538975942206721</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>429.683369</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>2.143614475052215</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>36.07474233612875</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>7860.452727</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>28.82135052091023</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>8789.208671</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>30.66439968466273</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>10876.721355</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>31.01768163934711</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>5808.530019</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>28.97773087304135</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-5.423053535805211</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1268,433 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>215.42845</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>17.44129535757549</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>125.687749</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>13.1269847106449</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>302.465041</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>27.66710734592788</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>338.316084</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>48.18526284675075</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>328.7827585765053</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>26.97152</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>2.18364030638829</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>37.62181</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>3.929268592890363</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>169.621088</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>15.51559424624243</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>77.201785</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>10.99559990905824</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-24.22941601045083</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>ESSENTIAL OILS, PERFUME AND FLAVOUR MATERIALS</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>74.673703</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>6.045655109466139</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>78.909856</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>8.241443430029049</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>82.70820000000001</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>7.565491338182359</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>42.322661</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>6.027879374067615</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-12.38425361656697</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>OTHER TEXTILE FABRICS, WOVEN</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>3.62614</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>0.2935757962697999</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>48.163051</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>5.030208903614069</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>57.525853</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>5.262009602349606</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>29.035217</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>4.135391809978048</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-14.63752249513054</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>21.772934</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>1.762757763401248</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>45.035798</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>4.703594713735321</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>33.735393</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>3.08584666975799</v>
+      </c>
+      <c r="I35" s="8" t="n">
+        <v>27.196304</v>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>3.873481394104037</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>18.42671373026479</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="n">
+        <v>20.074638</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>1.625262079146967</v>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>27.437827</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>2.865640751687896</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>29.142604</v>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>2.665734692981815</v>
+      </c>
+      <c r="I36" s="8" t="n">
+        <v>24.837769</v>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>3.537562901655829</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>72.55594990092426</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>FERROUS WASTE AND SCRAP; REMELTING INGOTS OF IRON OR STEEL</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="n">
+        <v>0.627378</v>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>0.05079312875734377</v>
+      </c>
+      <c r="E37" s="8" t="n">
+        <v>5.905545</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>0.6167824592277915</v>
+      </c>
+      <c r="G37" s="8" t="n">
+        <v>37.421582</v>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>3.423030056053461</v>
+      </c>
+      <c r="I37" s="8" t="n">
+        <v>24.335335</v>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>3.466002856189163</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>162.5204115305447</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="n">
+        <v>96.572665</v>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>7.818616221456325</v>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v>117.010696</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>12.22074251145923</v>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v>64.141561</v>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>5.867162193869476</v>
+      </c>
+      <c r="I38" s="8" t="n">
+        <v>23.084331</v>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>3.287826412877244</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-47.53928719039982</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="n">
+        <v>32.702646</v>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>2.647637802064837</v>
+      </c>
+      <c r="E39" s="8" t="n">
+        <v>33.135302</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>3.460692121525712</v>
+      </c>
+      <c r="G39" s="8" t="n">
+        <v>34.469797</v>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>3.153024133428176</v>
+      </c>
+      <c r="I39" s="8" t="n">
+        <v>19.260845</v>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>2.743259699634987</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>-0.5731505081464805</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>PETROLEUM OILS AND OILS OBTAINED FROM BITUMINOUS MINERALS; PREPARATIONS, N.E.S., CONTAINING BY WEIGHT 70% OR MORE OF PETROLEUM OILS OR OF OILS FROM BITUMINOUS MINERALS</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="n">
+        <v>94.913498</v>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>7.684288458830069</v>
+      </c>
+      <c r="E40" s="8" t="n">
+        <v>66.015034</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>6.894692194628316</v>
+      </c>
+      <c r="G40" s="8" t="n">
+        <v>46.711136</v>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>4.272764910911593</v>
+      </c>
+      <c r="I40" s="8" t="n">
+        <v>13.923018</v>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>1.983010308046844</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>-57.64977899923299</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>647.79956</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>52.44647797664349</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>372.553491</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>38.90994961055736</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>235.287468</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>21.52223481029522</v>
+      </c>
+      <c r="I41" s="8" t="n">
+        <v>82.601912</v>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>11.76472248763725</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-45.01332530608596</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1726,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>6592.099809</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>25.31736698427884</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>6719.501075</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>24.25365613111099</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>8463.928582</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>24.913715978228</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>5348.491911</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>27.65122962797791</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>16.32526742170029</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>3593.510928</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>13.80110094843869</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>3921.940331</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>14.15602008141797</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>5303.621987</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>15.61130042153317</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>2940.208671</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>15.20061850496323</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-5.292291900524216</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>2775.865529</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>10.66088322885439</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>2774.188583</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>10.01327556673336</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>3060.896053</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>9.00979895618419</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>1596.879946</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>8.25572793413896</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-5.851750430848468</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>1044.360282</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>4.010930248219326</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>1085.659223</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>3.918625084855894</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>1641.984602</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>4.833209261931807</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>947.235986</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>4.897126179980133</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>5.973994311941122</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>1560.947798</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>5.994916550158071</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>1600.011993</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>5.775152091016752</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>1484.061834</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>4.368360941163262</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>895.68755</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>4.630625329924136</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>11.02562020902125</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>983.0943569999999</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>3.775634674457132</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>987.6078639999999</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>3.564714293291043</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>1218.656779</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>3.587136702868291</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>584.086174</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>3.019673804981298</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-11.09250583595392</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>1052.120898</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>4.040735373898372</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>792.866166</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>2.861805234275725</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>883.679198</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>2.601124565448313</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>565.9903440000001</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>2.926119966073968</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>6.726162501511901</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>659.439766</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>2.532619202314776</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>769.554815</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>2.777664241545007</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>787.4997049999999</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>2.318018611951981</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>455.987975</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>2.357417457880054</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>0.9851281525105282</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>728</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MACHINERY AND EQUIPMENT SPECIALIZED FOR PARTICULAR INDUSTRIES, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>292.925742</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>1.124999427228208</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>577.151556</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>2.083195644813503</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>533.327566</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>1.569858650620128</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>425.417892</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>2.199372835424731</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>35.58729907936431</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>143.402449</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.5507459736608685</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>261.924308</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.9454008605261222</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>1109.767753</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>3.266620025461633</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>326.358438</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.687244228902451</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-59.42293881060667</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>7340.089432</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>28.19006738849133</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>8214.699817999999</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>29.65049077041364</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>9485.543239000001</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>27.92085588460922</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>5256.346136</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>27.17484412975312</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>0.3731670997127789</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2184,433 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>58036.870414</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>64.06975619590695</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>76686.776943</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>66.75560740546214</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>137349.780502</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>72.63715455853287</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>69665.14001800001</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>73.29547594465564</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-12.54616198440454</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>4810.939954</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>5.311033274660745</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>5811.730964</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>5.05909422777437</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>7207.162815</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>3.811493527024914</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>3732.980403</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>3.927510592231096</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-0.4042478601542165</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>3993.968521</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>4.409138321367326</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>4673.41548</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>4.068194041553949</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>6383.660842</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>3.375986168560758</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>3493.309879</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>3.675350543145627</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-6.511251388720673</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>PETROLEUM OILS AND OILS OBTAINED FROM BITUMINOUS MINERALS; PREPARATIONS, N.E.S., CONTAINING BY WEIGHT 70% OR MORE OF PETROLEUM OILS OR OF OILS FROM BITUMINOUS MINERALS</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>778.355251</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>0.8592646503789467</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>2359.229148</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>2.053701838329598</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>4705.93971</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>2.48872672973387</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>3196.666751</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>3.363248977759357</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>35.6613656699434</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>3001.433391</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>3.313429966637833</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>3497.133749</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>3.044244352141151</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>5067.465038</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>2.679918670709545</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>2858.832788</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>3.00781007241938</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>4.646210031911369</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>3850.15845</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>4.250379309694922</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>3633.905285</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>3.163303560591708</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>4756.407947</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>2.515416755141026</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>1828.559314</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>1.923847783526076</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-33.82899579715789</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>1034.656602</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>1.14220831970696</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>1630.861494</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>1.419659998321093</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>5717.183067</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>3.023520740690655</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>1083.542507</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>1.140007236564948</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-67.73690473138799</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>1810.83022</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>1.999064558098461</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>1741.352135</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>1.515841767155324</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>1670.690943</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>0.8835415375451943</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>796.234017</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>0.8377267486186198</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-20.20833651253753</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>622.145218</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>0.6868167106766312</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>952.197344</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>0.828884908226541</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>1101.970185</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.5827747110638776</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>533.509843</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>0.5613116955444272</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-22.92369905109599</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>571.076918</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>0.6304399021581939</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>716.87396</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>0.6240366141418233</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>678.8955979999999</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>0.3590325685326853</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>375.291553</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>0.3948484563159808</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>1.124055416270409</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>12073.444039</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>13.32846879071304</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>13173.430358</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>11.46743128630231</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>14451.097971</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>7.642434032464601</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>7482.917915</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>7.872861949218846</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-11.88350887962042</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
